--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spon1-App.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spon1-App.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.63768</v>
+        <v>0.3347243333333333</v>
       </c>
       <c r="H2">
-        <v>1.91304</v>
+        <v>1.004173</v>
       </c>
       <c r="I2">
-        <v>0.02339172577126566</v>
+        <v>0.009010869741369597</v>
       </c>
       <c r="J2">
-        <v>0.0246633449673215</v>
+        <v>0.009185193863338879</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="N2">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="O2">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="P2">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="Q2">
-        <v>61.61267731008</v>
+        <v>29.91838871560878</v>
       </c>
       <c r="R2">
-        <v>554.51409579072</v>
+        <v>269.265498440479</v>
       </c>
       <c r="S2">
-        <v>0.004949777817258647</v>
+        <v>0.001931526799429025</v>
       </c>
       <c r="T2">
-        <v>0.005386242295149321</v>
+        <v>0.001998666355362521</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.63768</v>
+        <v>0.3347243333333333</v>
       </c>
       <c r="H3">
-        <v>1.91304</v>
+        <v>1.004173</v>
       </c>
       <c r="I3">
-        <v>0.02339172577126566</v>
+        <v>0.009010869741369597</v>
       </c>
       <c r="J3">
-        <v>0.0246633449673215</v>
+        <v>0.009185193863338879</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>367.061969</v>
       </c>
       <c r="O3">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="P3">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="Q3">
-        <v>78.02269213064</v>
+        <v>40.95485762184855</v>
       </c>
       <c r="R3">
-        <v>702.20422917576</v>
+        <v>368.593718596637</v>
       </c>
       <c r="S3">
-        <v>0.006268109220565555</v>
+        <v>0.002644039617752887</v>
       </c>
       <c r="T3">
-        <v>0.006820822315843648</v>
+        <v>0.002735946002825554</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.63768</v>
+        <v>0.3347243333333333</v>
       </c>
       <c r="H4">
-        <v>1.91304</v>
+        <v>1.004173</v>
       </c>
       <c r="I4">
-        <v>0.02339172577126566</v>
+        <v>0.009010869741369597</v>
       </c>
       <c r="J4">
-        <v>0.0246633449673215</v>
+        <v>0.009185193863338879</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="N4">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="O4">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="P4">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="Q4">
-        <v>53.40177550472001</v>
+        <v>30.23719724161645</v>
       </c>
       <c r="R4">
-        <v>480.61597954248</v>
+        <v>272.134775174548</v>
       </c>
       <c r="S4">
-        <v>0.004290138577572325</v>
+        <v>0.001952109031237151</v>
       </c>
       <c r="T4">
-        <v>0.004668436990848538</v>
+        <v>0.002019964022185126</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.63768</v>
+        <v>0.3347243333333333</v>
       </c>
       <c r="H5">
-        <v>1.91304</v>
+        <v>1.004173</v>
       </c>
       <c r="I5">
-        <v>0.02339172577126566</v>
+        <v>0.009010869741369597</v>
       </c>
       <c r="J5">
-        <v>0.0246633449673215</v>
+        <v>0.009185193863338879</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="N5">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="O5">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="P5">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="Q5">
-        <v>27.1455497748</v>
+        <v>6.237307117951</v>
       </c>
       <c r="R5">
-        <v>162.8732986488</v>
+        <v>37.42384270770599</v>
       </c>
       <c r="S5">
-        <v>0.002180792102839088</v>
+        <v>0.0004026796352273621</v>
       </c>
       <c r="T5">
-        <v>0.001582060864803962</v>
+        <v>0.0002777844756995668</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.63768</v>
+        <v>0.3347243333333333</v>
       </c>
       <c r="H6">
-        <v>1.91304</v>
+        <v>1.004173</v>
       </c>
       <c r="I6">
-        <v>0.02339172577126566</v>
+        <v>0.009010869741369597</v>
       </c>
       <c r="J6">
-        <v>0.0246633449673215</v>
+        <v>0.009185193863338879</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="N6">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="O6">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="P6">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="Q6">
-        <v>70.98731429424001</v>
+        <v>32.22613648264366</v>
       </c>
       <c r="R6">
-        <v>638.8858286481601</v>
+        <v>290.0352283437929</v>
       </c>
       <c r="S6">
-        <v>0.005702908053030046</v>
+        <v>0.002080514657723173</v>
       </c>
       <c r="T6">
-        <v>0.006205782500676028</v>
+        <v>0.002152833007266112</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.11522666666666</v>
+        <v>10.11522666666667</v>
       </c>
       <c r="H7">
-        <v>30.34567999999999</v>
+        <v>30.34568</v>
       </c>
       <c r="I7">
-        <v>0.3710522649304671</v>
+        <v>0.2723046424204639</v>
       </c>
       <c r="J7">
-        <v>0.391223379598936</v>
+        <v>0.2775726430752922</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="N7">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="O7">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="P7">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="Q7">
-        <v>977.3337669860264</v>
+        <v>904.1209533411823</v>
       </c>
       <c r="R7">
-        <v>8796.003902874238</v>
+        <v>8137.08858007064</v>
       </c>
       <c r="S7">
-        <v>0.07851606537951603</v>
+        <v>0.05836991650532066</v>
       </c>
       <c r="T7">
-        <v>0.08543950209669783</v>
+        <v>0.06039884526530522</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.11522666666666</v>
+        <v>10.11522666666667</v>
       </c>
       <c r="H8">
-        <v>30.34567999999999</v>
+        <v>30.34568</v>
       </c>
       <c r="I8">
-        <v>0.3710522649304671</v>
+        <v>0.2723046424204639</v>
       </c>
       <c r="J8">
-        <v>0.391223379598936</v>
+        <v>0.2775726430752922</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>367.061969</v>
       </c>
       <c r="O8">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="P8">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="Q8">
         <v>1237.638339049324</v>
@@ -948,10 +948,10 @@
         <v>11138.74505144392</v>
       </c>
       <c r="S8">
-        <v>0.09942815446218152</v>
+        <v>0.07990175014429927</v>
       </c>
       <c r="T8">
-        <v>0.1081955899162852</v>
+        <v>0.08267912192323768</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.11522666666666</v>
+        <v>10.11522666666667</v>
       </c>
       <c r="H9">
-        <v>30.34567999999999</v>
+        <v>30.34568</v>
       </c>
       <c r="I9">
-        <v>0.3710522649304671</v>
+        <v>0.2723046424204639</v>
       </c>
       <c r="J9">
-        <v>0.391223379598936</v>
+        <v>0.2775726430752922</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="N9">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="O9">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="P9">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="Q9">
-        <v>847.0879808566843</v>
+        <v>913.7552110950755</v>
       </c>
       <c r="R9">
-        <v>7623.791827710159</v>
+        <v>8223.796899855681</v>
       </c>
       <c r="S9">
-        <v>0.06805250932059179</v>
+        <v>0.05899190277674521</v>
       </c>
       <c r="T9">
-        <v>0.07405328431420809</v>
+        <v>0.0610424516778909</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.11522666666666</v>
+        <v>10.11522666666667</v>
       </c>
       <c r="H10">
-        <v>30.34567999999999</v>
+        <v>30.34568</v>
       </c>
       <c r="I10">
-        <v>0.3710522649304671</v>
+        <v>0.2723046424204639</v>
       </c>
       <c r="J10">
-        <v>0.391223379598936</v>
+        <v>0.2775726430752922</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="N10">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="O10">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="P10">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="Q10">
-        <v>430.5974610515999</v>
+        <v>188.48876225816</v>
       </c>
       <c r="R10">
-        <v>2583.5847663096</v>
+        <v>1130.93257354896</v>
       </c>
       <c r="S10">
-        <v>0.03459290934809624</v>
+        <v>0.01216880692184141</v>
       </c>
       <c r="T10">
-        <v>0.02509550910794561</v>
+        <v>0.008394528441361031</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.11522666666666</v>
+        <v>10.11522666666667</v>
       </c>
       <c r="H11">
-        <v>30.34567999999999</v>
+        <v>30.34568</v>
       </c>
       <c r="I11">
-        <v>0.3710522649304671</v>
+        <v>0.2723046424204639</v>
       </c>
       <c r="J11">
-        <v>0.391223379598936</v>
+        <v>0.2775726430752922</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="N11">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="O11">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="P11">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="Q11">
-        <v>1126.039352879413</v>
+        <v>973.8601071116532</v>
       </c>
       <c r="R11">
-        <v>10134.35417591472</v>
+        <v>8764.740964004879</v>
       </c>
       <c r="S11">
-        <v>0.09046262642008153</v>
+        <v>0.06287226607225739</v>
       </c>
       <c r="T11">
-        <v>0.09843949416379924</v>
+        <v>0.06505769576749736</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.144978333333333</v>
+        <v>19.79677166666667</v>
       </c>
       <c r="H12">
-        <v>27.434935</v>
+        <v>59.390315</v>
       </c>
       <c r="I12">
-        <v>0.3354610860580532</v>
+        <v>0.532934456875368</v>
       </c>
       <c r="J12">
-        <v>0.3536973957999009</v>
+        <v>0.5432445971757486</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="N12">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="O12">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="P12">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="Q12">
-        <v>883.5883186854531</v>
+        <v>1769.478496347194</v>
       </c>
       <c r="R12">
-        <v>7952.29486816908</v>
+        <v>15925.30646712474</v>
       </c>
       <c r="S12">
-        <v>0.0709848370556459</v>
+        <v>0.1142372729091816</v>
       </c>
       <c r="T12">
-        <v>0.07724418060347532</v>
+        <v>0.1182081418489464</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.144978333333333</v>
+        <v>19.79677166666667</v>
       </c>
       <c r="H13">
-        <v>27.434935</v>
+        <v>59.390315</v>
       </c>
       <c r="I13">
-        <v>0.3354610860580532</v>
+        <v>0.532934456875368</v>
       </c>
       <c r="J13">
-        <v>0.3536973957999009</v>
+        <v>0.5432445971757486</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>367.061969</v>
       </c>
       <c r="O13">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="P13">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="Q13">
-        <v>1118.924584498557</v>
+        <v>2422.213995936693</v>
       </c>
       <c r="R13">
-        <v>10070.32126048702</v>
+        <v>21799.92596343023</v>
       </c>
       <c r="S13">
-        <v>0.08989104725416963</v>
+        <v>0.1563777812895025</v>
       </c>
       <c r="T13">
-        <v>0.09781751394728805</v>
+        <v>0.1618134474147388</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.144978333333333</v>
+        <v>19.79677166666667</v>
       </c>
       <c r="H14">
-        <v>27.434935</v>
+        <v>59.390315</v>
       </c>
       <c r="I14">
-        <v>0.3354610860580532</v>
+        <v>0.532934456875368</v>
       </c>
       <c r="J14">
-        <v>0.3536973957999009</v>
+        <v>0.5432445971757486</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="N14">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="O14">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="P14">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="Q14">
-        <v>765.8356541716772</v>
+        <v>1788.333951317882</v>
       </c>
       <c r="R14">
-        <v>6892.520887545095</v>
+        <v>16095.00556186094</v>
       </c>
       <c r="S14">
-        <v>0.06152494094043469</v>
+        <v>0.1154545783241724</v>
       </c>
       <c r="T14">
-        <v>0.06695012409334108</v>
+        <v>0.1194677606012526</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.144978333333333</v>
+        <v>19.79677166666667</v>
       </c>
       <c r="H15">
-        <v>27.434935</v>
+        <v>59.390315</v>
       </c>
       <c r="I15">
-        <v>0.3354610860580532</v>
+        <v>0.532934456875368</v>
       </c>
       <c r="J15">
-        <v>0.3536973957999009</v>
+        <v>0.5432445971757486</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="N15">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="O15">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="P15">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="Q15">
-        <v>389.2947317415749</v>
+        <v>368.896230516905</v>
       </c>
       <c r="R15">
-        <v>2335.76839044945</v>
+        <v>2213.37738310143</v>
       </c>
       <c r="S15">
-        <v>0.03127477187612579</v>
+        <v>0.0238158866851012</v>
       </c>
       <c r="T15">
-        <v>0.02268835831552946</v>
+        <v>0.01642914867648017</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.144978333333333</v>
+        <v>19.79677166666667</v>
       </c>
       <c r="H16">
-        <v>27.434935</v>
+        <v>59.390315</v>
       </c>
       <c r="I16">
-        <v>0.3354610860580532</v>
+        <v>0.532934456875368</v>
       </c>
       <c r="J16">
-        <v>0.3536973957999009</v>
+        <v>0.5432445971757486</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="N16">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="O16">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="P16">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="Q16">
-        <v>1018.030126650277</v>
+        <v>1905.966797491268</v>
       </c>
       <c r="R16">
-        <v>9162.27113985249</v>
+        <v>17153.70117742141</v>
       </c>
       <c r="S16">
-        <v>0.08178548893167725</v>
+        <v>0.1230489376674103</v>
       </c>
       <c r="T16">
-        <v>0.08899721884026694</v>
+        <v>0.1273260986343306</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.2166435</v>
+        <v>2.115003</v>
       </c>
       <c r="H17">
-        <v>8.433287</v>
+        <v>4.230005999999999</v>
       </c>
       <c r="I17">
-        <v>0.1546772180830351</v>
+        <v>0.05693645378517223</v>
       </c>
       <c r="J17">
-        <v>0.108723846071921</v>
+        <v>0.03869196358902961</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="N17">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="O17">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="P17">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="Q17">
-        <v>407.412331102036</v>
+        <v>189.043566861523</v>
       </c>
       <c r="R17">
-        <v>2444.473986612216</v>
+        <v>1134.261401169138</v>
       </c>
       <c r="S17">
-        <v>0.0327302855030546</v>
+        <v>0.01220462502588534</v>
       </c>
       <c r="T17">
-        <v>0.0237442641693498</v>
+        <v>0.008419237198352867</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.2166435</v>
+        <v>2.115003</v>
       </c>
       <c r="H18">
-        <v>8.433287</v>
+        <v>4.230005999999999</v>
       </c>
       <c r="I18">
-        <v>0.1546772180830351</v>
+        <v>0.05693645378517223</v>
       </c>
       <c r="J18">
-        <v>0.108723846071921</v>
+        <v>0.03869196358902961</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>367.061969</v>
       </c>
       <c r="O18">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="P18">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="Q18">
-        <v>515.9231552270171</v>
+        <v>258.779055206969</v>
       </c>
       <c r="R18">
-        <v>3095.538931362103</v>
+        <v>1552.674331241814</v>
       </c>
       <c r="S18">
-        <v>0.04144771986292155</v>
+        <v>0.0167067379535186</v>
       </c>
       <c r="T18">
-        <v>0.0300683478471512</v>
+        <v>0.01152497428991629</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.2166435</v>
+        <v>2.115003</v>
       </c>
       <c r="H19">
-        <v>8.433287</v>
+        <v>4.230005999999999</v>
       </c>
       <c r="I19">
-        <v>0.1546772180830351</v>
+        <v>0.05693645378517223</v>
       </c>
       <c r="J19">
-        <v>0.108723846071921</v>
+        <v>0.03869196358902961</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="N19">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="O19">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="P19">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="Q19">
-        <v>353.1179424953532</v>
+        <v>191.058003583876</v>
       </c>
       <c r="R19">
-        <v>2118.707654972119</v>
+        <v>1146.348021503256</v>
       </c>
       <c r="S19">
-        <v>0.02836843706438902</v>
+        <v>0.01233467676603633</v>
       </c>
       <c r="T19">
-        <v>0.020579950751287</v>
+        <v>0.008508952076611516</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.2166435</v>
+        <v>2.115003</v>
       </c>
       <c r="H20">
-        <v>8.433287</v>
+        <v>4.230005999999999</v>
       </c>
       <c r="I20">
-        <v>0.1546772180830351</v>
+        <v>0.05693645378517223</v>
       </c>
       <c r="J20">
-        <v>0.108723846071921</v>
+        <v>0.03869196358902961</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="N20">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="O20">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="P20">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="Q20">
-        <v>179.4992880627225</v>
+        <v>39.41130641748299</v>
       </c>
       <c r="R20">
-        <v>717.9971522508899</v>
+        <v>157.645225669932</v>
       </c>
       <c r="S20">
-        <v>0.01442043477180995</v>
+        <v>0.002544388177768501</v>
       </c>
       <c r="T20">
-        <v>0.006974226009053656</v>
+        <v>0.001170146975586898</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.2166435</v>
+        <v>2.115003</v>
       </c>
       <c r="H21">
-        <v>8.433287</v>
+        <v>4.230005999999999</v>
       </c>
       <c r="I21">
-        <v>0.1546772180830351</v>
+        <v>0.05693645378517223</v>
       </c>
       <c r="J21">
-        <v>0.108723846071921</v>
+        <v>0.03869196358902961</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="N21">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="O21">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="P21">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="Q21">
-        <v>469.401890291783</v>
+        <v>203.6253972349409</v>
       </c>
       <c r="R21">
-        <v>2816.411341750698</v>
+        <v>1221.752383409646</v>
       </c>
       <c r="S21">
-        <v>0.03771034088085999</v>
+        <v>0.01314602586196347</v>
       </c>
       <c r="T21">
-        <v>0.02735705729507937</v>
+        <v>0.009068653048562048</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.146393</v>
+        <v>4.785003</v>
       </c>
       <c r="H22">
-        <v>9.439178999999999</v>
+        <v>14.355009</v>
       </c>
       <c r="I22">
-        <v>0.1154177051571789</v>
+        <v>0.128813577177626</v>
       </c>
       <c r="J22">
-        <v>0.1216920335619207</v>
+        <v>0.1313056022965907</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="N22">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="O22">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="P22">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="Q22">
-        <v>304.004667858008</v>
+        <v>427.693972331523</v>
       </c>
       <c r="R22">
-        <v>2736.042010722072</v>
+        <v>3849.245750983707</v>
       </c>
       <c r="S22">
-        <v>0.02442282379214949</v>
+        <v>0.02761186029652743</v>
       </c>
       <c r="T22">
-        <v>0.02657639420047948</v>
+        <v>0.02857164404861132</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.146393</v>
+        <v>4.785003</v>
       </c>
       <c r="H23">
-        <v>9.439178999999999</v>
+        <v>14.355009</v>
       </c>
       <c r="I23">
-        <v>0.1154177051571789</v>
+        <v>0.128813577177626</v>
       </c>
       <c r="J23">
-        <v>0.1216920335619207</v>
+        <v>0.1313056022965907</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>367.061969</v>
       </c>
       <c r="O23">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="P23">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="Q23">
-        <v>384.9737366092723</v>
+        <v>585.4642076169689</v>
       </c>
       <c r="R23">
-        <v>3464.763629483451</v>
+        <v>5269.177868552721</v>
       </c>
       <c r="S23">
-        <v>0.03092763607894699</v>
+        <v>0.03779748361009433</v>
       </c>
       <c r="T23">
-        <v>0.03365479172753456</v>
+        <v>0.0391113179642102</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.146393</v>
+        <v>4.785003</v>
       </c>
       <c r="H24">
-        <v>9.439178999999999</v>
+        <v>14.355009</v>
       </c>
       <c r="I24">
-        <v>0.1154177051571789</v>
+        <v>0.128813577177626</v>
       </c>
       <c r="J24">
-        <v>0.1216920335619207</v>
+        <v>0.1313056022965907</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="N24">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="O24">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="P24">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="Q24">
-        <v>263.4910497986803</v>
+        <v>432.251453223876</v>
       </c>
       <c r="R24">
-        <v>2371.419448188123</v>
+        <v>3890.263079014884</v>
       </c>
       <c r="S24">
-        <v>0.02116808115277807</v>
+        <v>0.02790609059633208</v>
       </c>
       <c r="T24">
-        <v>0.02303465291203566</v>
+        <v>0.02887610174555946</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.146393</v>
+        <v>4.785003</v>
       </c>
       <c r="H25">
-        <v>9.439178999999999</v>
+        <v>14.355009</v>
       </c>
       <c r="I25">
-        <v>0.1154177051571789</v>
+        <v>0.128813577177626</v>
       </c>
       <c r="J25">
-        <v>0.1216920335619207</v>
+        <v>0.1313056022965907</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="N25">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="O25">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="P25">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="Q25">
-        <v>133.939543019355</v>
+        <v>89.16451628748298</v>
       </c>
       <c r="R25">
-        <v>803.6372581161299</v>
+        <v>534.9870977248979</v>
       </c>
       <c r="S25">
-        <v>0.01076030141580132</v>
+        <v>0.00575644812976001</v>
       </c>
       <c r="T25">
-        <v>0.007806086486314657</v>
+        <v>0.003971027550758248</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.146393</v>
+        <v>4.785003</v>
       </c>
       <c r="H26">
-        <v>9.439178999999999</v>
+        <v>14.355009</v>
       </c>
       <c r="I26">
-        <v>0.1154177051571789</v>
+        <v>0.128813577177626</v>
       </c>
       <c r="J26">
-        <v>0.1216920335619207</v>
+        <v>0.1313056022965907</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="N26">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="O26">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="P26">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="Q26">
-        <v>350.260301066674</v>
+        <v>460.6840447249409</v>
       </c>
       <c r="R26">
-        <v>3152.342709600066</v>
+        <v>4146.156402524468</v>
       </c>
       <c r="S26">
-        <v>0.02813886271750308</v>
+        <v>0.02974169454491214</v>
       </c>
       <c r="T26">
-        <v>0.03062010823555631</v>
+        <v>0.03077551098745147</v>
       </c>
     </row>
   </sheetData>
